--- a/excel/Item.xlsx
+++ b/excel/Item.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kof\Trunk\Tools\Excel2Protobuffers\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView windowWidth="28800" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -17,22 +12,9 @@
     <sheet name="道具id与模型的关联" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Item!$A$3:$AQ$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Item!$A$3:$V$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -42,14 +24,13 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -58,7 +39,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -71,20 +51,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="300">
-  <si>
-    <t>num</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="322">
+  <si>
+    <t>//注释用</t>
+  </si>
+  <si>
+    <t>unum</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>sint32</t>
+  </si>
+  <si>
+    <t>sint64</t>
+  </si>
+  <si>
+    <t>fixed32</t>
+  </si>
+  <si>
+    <t>fixed64</t>
+  </si>
+  <si>
+    <t>sfixed32</t>
+  </si>
+  <si>
+    <t>sfixed64</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>uilist</t>
   </si>
   <si>
     <t>ilist</t>
   </si>
   <si>
-    <t>list</t>
+    <t>flist</t>
+  </si>
+  <si>
+    <t>slist</t>
+  </si>
+  <si>
+    <t>blist</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>nameId</t>
   </si>
   <si>
@@ -106,9 +146,6 @@
     <t>useType</t>
   </si>
   <si>
-    <t>ordering</t>
-  </si>
-  <si>
     <t>binding</t>
   </si>
   <si>
@@ -130,33 +167,12 @@
     <t>smallIcon</t>
   </si>
   <si>
-    <t>bigIcon</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>modelType</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>hangPiontId</t>
-  </si>
-  <si>
-    <t>bufferParam</t>
-  </si>
-  <si>
-    <t>read</t>
+    <t>ismodel</t>
   </si>
   <si>
     <t>getway</t>
   </si>
   <si>
-    <t>load</t>
-  </si>
-  <si>
     <t>callback</t>
   </si>
   <si>
@@ -169,652 +185,718 @@
     <t>partner</t>
   </si>
   <si>
-    <t>subCos</t>
-  </si>
-  <si>
-    <t>cos</t>
-  </si>
-  <si>
-    <t>actionType</t>
-  </si>
-  <si>
-    <t>funcOpen</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>intimacy</t>
-  </si>
-  <si>
-    <t>IsShowUi</t>
-  </si>
-  <si>
-    <t>resolveItem</t>
+    <t>道具1</t>
+  </si>
+  <si>
+    <t>说明111</t>
+  </si>
+  <si>
+    <t>3#2#6</t>
+  </si>
+  <si>
+    <t>1#2#1</t>
+  </si>
+  <si>
+    <t>0.00001#0.0001#0.1</t>
+  </si>
+  <si>
+    <t>a#b#c1</t>
+  </si>
+  <si>
+    <t>1#0#1</t>
+  </si>
+  <si>
+    <t>道具2</t>
+  </si>
+  <si>
+    <t>说明112</t>
+  </si>
+  <si>
+    <t>3#2#5</t>
+  </si>
+  <si>
+    <t>1#2#2</t>
+  </si>
+  <si>
+    <t>a#b#c2</t>
+  </si>
+  <si>
+    <t>道具3</t>
+  </si>
+  <si>
+    <t>说明113</t>
+  </si>
+  <si>
+    <t>3#2#4</t>
+  </si>
+  <si>
+    <t>1#2#3</t>
+  </si>
+  <si>
+    <t>a#b#c3</t>
+  </si>
+  <si>
+    <t>道具4</t>
+  </si>
+  <si>
+    <t>说明114</t>
+  </si>
+  <si>
+    <t>3#2#3</t>
+  </si>
+  <si>
+    <t>1#2#4</t>
+  </si>
+  <si>
+    <t>a#b#c4</t>
+  </si>
+  <si>
+    <t>道具5</t>
+  </si>
+  <si>
+    <t>说明115</t>
+  </si>
+  <si>
+    <t>3#2#2</t>
+  </si>
+  <si>
+    <t>1#2#5</t>
+  </si>
+  <si>
+    <t>a#b#c5</t>
+  </si>
+  <si>
+    <t>道具6</t>
+  </si>
+  <si>
+    <t>说明116</t>
+  </si>
+  <si>
+    <t>3#2#1</t>
+  </si>
+  <si>
+    <t>1#2#6</t>
+  </si>
+  <si>
+    <t>a#b#c6</t>
+  </si>
+  <si>
+    <t>大类</t>
+  </si>
+  <si>
+    <t>type=1</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>type=2</t>
+  </si>
+  <si>
+    <t>时装</t>
+  </si>
+  <si>
+    <t>type=3</t>
+  </si>
+  <si>
+    <t>伙伴</t>
+  </si>
+  <si>
+    <t>type=4</t>
+  </si>
+  <si>
+    <t>伙伴时装</t>
+  </si>
+  <si>
+    <t>type=5</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>type=6</t>
+  </si>
+  <si>
+    <t>武器皮肤</t>
+  </si>
+  <si>
+    <t>type=7</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>type=8</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>type=9</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>type=10</t>
+  </si>
+  <si>
+    <t>攻略道具</t>
+  </si>
+  <si>
+    <t>type=11</t>
+  </si>
+  <si>
+    <t>法宝</t>
+  </si>
+  <si>
+    <t>功能类型</t>
+  </si>
+  <si>
+    <t>type=12</t>
+  </si>
+  <si>
+    <t>背景主题</t>
+  </si>
+  <si>
+    <t>type=13</t>
+  </si>
+  <si>
+    <t>御剑</t>
+  </si>
+  <si>
+    <t>type=14</t>
+  </si>
+  <si>
+    <t>御剑皮肤</t>
+  </si>
+  <si>
+    <t>type=15</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>type=16</t>
+  </si>
+  <si>
+    <t>体验卡</t>
+  </si>
+  <si>
+    <t>type=17</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>type=18</t>
+  </si>
+  <si>
+    <t>头像框</t>
+  </si>
+  <si>
+    <t>type=19</t>
+  </si>
+  <si>
+    <t>聊天泡泡</t>
+  </si>
+  <si>
+    <t>type=20</t>
+  </si>
+  <si>
+    <t>亲密关系图标</t>
+  </si>
+  <si>
+    <t>type=21</t>
+  </si>
+  <si>
+    <t>聊天背景</t>
+  </si>
+  <si>
+    <t>type=22</t>
+  </si>
+  <si>
+    <t>伙伴卡</t>
+  </si>
+  <si>
+    <t>type=88</t>
+  </si>
+  <si>
+    <t>礼包</t>
+  </si>
+  <si>
+    <t>是否有模型1有  2无</t>
   </si>
   <si>
     <t>积分</t>
   </si>
   <si>
-    <t/>
+    <t>发型</t>
+  </si>
+  <si>
+    <t>小小</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>剑皮肤</t>
+  </si>
+  <si>
+    <t>读技能ID</t>
+  </si>
+  <si>
+    <t>效果读buff</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>无效果的</t>
+  </si>
+  <si>
+    <t>读技能id</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>载具</t>
+  </si>
+  <si>
+    <t>改名卡</t>
+  </si>
+  <si>
+    <t>男头像</t>
+  </si>
+  <si>
+    <t>恋人</t>
+  </si>
+  <si>
+    <t>n随1，随机多次</t>
+  </si>
+  <si>
+    <t>可装备</t>
+  </si>
+  <si>
+    <t>华国币</t>
+  </si>
+  <si>
+    <t>眼睛（FashionId占用）</t>
+  </si>
+  <si>
+    <t>玲珑</t>
+  </si>
+  <si>
+    <t>眼睛（id占用）</t>
+  </si>
+  <si>
+    <t>环</t>
+  </si>
+  <si>
+    <t>环皮肤</t>
+  </si>
+  <si>
+    <t>读action表ID</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>诛仙剑</t>
+  </si>
+  <si>
+    <t>读Buff表ID</t>
+  </si>
+  <si>
+    <t>骑乘</t>
+  </si>
+  <si>
+    <t>变性卡</t>
+  </si>
+  <si>
+    <t>套装</t>
+  </si>
+  <si>
+    <t>女头像</t>
+  </si>
+  <si>
+    <t>师徒</t>
+  </si>
+  <si>
+    <t>n合1</t>
   </si>
   <si>
     <t>仙金</t>
   </si>
   <si>
+    <t>上衣</t>
+  </si>
+  <si>
+    <t>凡凡</t>
+  </si>
+  <si>
+    <t>弓</t>
+  </si>
+  <si>
+    <t>弓皮肤</t>
+  </si>
+  <si>
+    <t>零食</t>
+  </si>
+  <si>
+    <t>化血神刀</t>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>生日卡</t>
+  </si>
+  <si>
+    <t>兄弟姐妹</t>
+  </si>
+  <si>
+    <t>n选1</t>
+  </si>
+  <si>
     <t>活跃度</t>
   </si>
   <si>
-    <t>1#2#3#4</t>
+    <t>下衣</t>
+  </si>
+  <si>
+    <t>尘尘</t>
+  </si>
+  <si>
+    <t>法珠</t>
+  </si>
+  <si>
+    <t>法珠皮肤</t>
+  </si>
+  <si>
+    <t>冷饮</t>
+  </si>
+  <si>
+    <t>定海珠</t>
+  </si>
+  <si>
+    <t>喇叭</t>
+  </si>
+  <si>
+    <t>灵剑</t>
   </si>
   <si>
     <t>经验</t>
   </si>
   <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>萌萌</t>
+  </si>
+  <si>
+    <t>臂铠</t>
+  </si>
+  <si>
+    <t>臂铠皮肤</t>
+  </si>
+  <si>
+    <t>水墙</t>
+  </si>
+  <si>
+    <t>主食</t>
+  </si>
+  <si>
+    <t>打神鞭</t>
+  </si>
+  <si>
+    <t>雷达</t>
+  </si>
+  <si>
+    <t>房间卡</t>
+  </si>
+  <si>
+    <t>灵剑皮肤</t>
+  </si>
+  <si>
     <t>友好度</t>
   </si>
   <si>
+    <t>手饰</t>
+  </si>
+  <si>
+    <t>小辉</t>
+  </si>
+  <si>
+    <t>巨剑</t>
+  </si>
+  <si>
+    <t>巨剑皮肤</t>
+  </si>
+  <si>
+    <t>恋人动作</t>
+  </si>
+  <si>
+    <t>文具</t>
+  </si>
+  <si>
+    <t>乾坤弓</t>
+  </si>
+  <si>
+    <t>周卡</t>
+  </si>
+  <si>
     <t>亲密度</t>
   </si>
   <si>
+    <t>臂饰</t>
+  </si>
+  <si>
+    <t>开哥</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>刀皮肤</t>
+  </si>
+  <si>
+    <t>师徒动作</t>
+  </si>
+  <si>
+    <t>生活用品</t>
+  </si>
+  <si>
+    <t>紫绶仙衣</t>
+  </si>
+  <si>
+    <t>月卡</t>
+  </si>
+  <si>
     <t>功勋</t>
   </si>
   <si>
+    <t>背部</t>
+  </si>
+  <si>
+    <t>神话</t>
+  </si>
+  <si>
+    <t>匕首</t>
+  </si>
+  <si>
+    <t>匕首皮肤</t>
+  </si>
+  <si>
+    <t>兄弟姐妹动作</t>
+  </si>
+  <si>
+    <t>小工具</t>
+  </si>
+  <si>
+    <t>替身娃娃</t>
+  </si>
+  <si>
+    <t>隐身</t>
+  </si>
+  <si>
+    <t>四叶草</t>
+  </si>
+  <si>
     <t>珍珠</t>
   </si>
   <si>
+    <t>眉毛（FashionId占用）</t>
+  </si>
+  <si>
+    <t>喧哗</t>
+  </si>
+  <si>
+    <t>眉毛（id占用）</t>
+  </si>
+  <si>
+    <t>枪</t>
+  </si>
+  <si>
+    <t>枪皮肤</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>口红</t>
+  </si>
+  <si>
+    <t>材料（校园攻略专用）</t>
+  </si>
+  <si>
     <t>翡翠</t>
   </si>
   <si>
+    <t>瞳孔（FashionId占用）</t>
+  </si>
+  <si>
+    <t>明天</t>
+  </si>
+  <si>
+    <t>瞳孔（id占用）</t>
+  </si>
+  <si>
+    <t>隐气</t>
+  </si>
+  <si>
+    <t>变身卡</t>
+  </si>
+  <si>
     <t>玛瑙</t>
   </si>
   <si>
+    <t>面妆</t>
+  </si>
+  <si>
+    <t>哮天犬</t>
+  </si>
+  <si>
+    <t>男圆盘展示动作</t>
+  </si>
+  <si>
+    <t>数值越大，价值越高</t>
+  </si>
+  <si>
+    <t>反隐</t>
+  </si>
+  <si>
+    <t>烟花卡</t>
+  </si>
+  <si>
     <t>钻石</t>
   </si>
   <si>
+    <t>腰包（FashionId占用）</t>
+  </si>
+  <si>
+    <t>胜利动作男</t>
+  </si>
+  <si>
+    <t>贡献值</t>
+  </si>
+  <si>
+    <t>裸模身子（FashionId占用）</t>
+  </si>
+  <si>
+    <t>女圆盘展示动作</t>
+  </si>
+  <si>
+    <t>定风珠</t>
+  </si>
+  <si>
     <t>福利仙金</t>
   </si>
   <si>
     <t>算VIP，算累充，不可交易，托号专用</t>
   </si>
   <si>
+    <t>裸模头（FashionId占用）</t>
+  </si>
+  <si>
+    <t>胜利动作女</t>
+  </si>
+  <si>
+    <t>青云护体</t>
+  </si>
+  <si>
     <t>补单仙金</t>
   </si>
   <si>
     <t>算VIP，算累充，可交易</t>
   </si>
   <si>
+    <t>防毒面具（FashionId占用）</t>
+  </si>
+  <si>
+    <t>开始游戏男</t>
+  </si>
+  <si>
+    <t>青莲</t>
+  </si>
+  <si>
     <t>奖励仙金</t>
   </si>
   <si>
     <t>不算VIP，不算累充，可交易</t>
   </si>
   <si>
-    <t>哮天犬</t>
-  </si>
-  <si>
-    <t>剑</t>
-  </si>
-  <si>
-    <t>环</t>
-  </si>
-  <si>
-    <t>弓</t>
-  </si>
-  <si>
-    <t>法珠</t>
-  </si>
-  <si>
-    <t>臂铠</t>
-  </si>
-  <si>
-    <t>刀</t>
-  </si>
-  <si>
-    <t>匕首</t>
-  </si>
-  <si>
-    <t>胜利动作男</t>
-  </si>
-  <si>
-    <t>胜利动作女</t>
-  </si>
-  <si>
-    <t>诛仙剑</t>
-  </si>
-  <si>
-    <t>化血神刀</t>
-  </si>
-  <si>
-    <t>定海珠</t>
-  </si>
-  <si>
-    <t>乾坤弓</t>
-  </si>
-  <si>
-    <t>紫绶仙衣</t>
-  </si>
-  <si>
-    <t>替身娃娃</t>
-  </si>
-  <si>
-    <t>定风珠</t>
-  </si>
-  <si>
-    <t>青莲</t>
+    <t>开始游戏女</t>
+  </si>
+  <si>
+    <t>圣疗</t>
+  </si>
+  <si>
+    <t>武器（FashionId占用）</t>
+  </si>
+  <si>
+    <t>mvp男</t>
   </si>
   <si>
     <t>番天印</t>
   </si>
   <si>
+    <t>mvp女</t>
+  </si>
+  <si>
     <t>山河社稷图</t>
   </si>
   <si>
+    <t>大厅展示男</t>
+  </si>
+  <si>
     <t>寒冰阵</t>
   </si>
   <si>
+    <t>大厅展示女</t>
+  </si>
+  <si>
     <t>瑶池仙贝</t>
   </si>
   <si>
+    <t>特殊（FashionId占用）</t>
+  </si>
+  <si>
+    <t>前台待机男</t>
+  </si>
+  <si>
+    <t>封神鼎</t>
+  </si>
+  <si>
+    <t>type=90</t>
+  </si>
+  <si>
+    <t>眼睛、眉毛、瞳孔时装</t>
+  </si>
+  <si>
+    <t>前台待机女</t>
+  </si>
+  <si>
+    <t>太极盘</t>
+  </si>
+  <si>
+    <t>走入走出男</t>
+  </si>
+  <si>
+    <t>蒲团</t>
+  </si>
+  <si>
+    <t>走入走出女</t>
+  </si>
+  <si>
+    <t>本源符石</t>
+  </si>
+  <si>
     <t>空投箱</t>
   </si>
   <si>
     <t>千鸡伞</t>
-  </si>
-  <si>
-    <t>改名卡</t>
-  </si>
-  <si>
-    <t>变性卡</t>
-  </si>
-  <si>
-    <t>生日卡</t>
-  </si>
-  <si>
-    <t>房间卡</t>
-  </si>
-  <si>
-    <t>周卡</t>
-  </si>
-  <si>
-    <t>月卡</t>
-  </si>
-  <si>
-    <t>四叶草</t>
-  </si>
-  <si>
-    <t>口红</t>
-  </si>
-  <si>
-    <t>体验卡</t>
-  </si>
-  <si>
-    <t>大类</t>
-  </si>
-  <si>
-    <t>type=1</t>
-  </si>
-  <si>
-    <t>货币</t>
-  </si>
-  <si>
-    <t>type=2</t>
-  </si>
-  <si>
-    <t>时装</t>
-  </si>
-  <si>
-    <t>type=3</t>
-  </si>
-  <si>
-    <t>伙伴</t>
-  </si>
-  <si>
-    <t>type=4</t>
-  </si>
-  <si>
-    <t>伙伴时装</t>
-  </si>
-  <si>
-    <t>type=5</t>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>type=6</t>
-  </si>
-  <si>
-    <t>武器皮肤</t>
-  </si>
-  <si>
-    <t>type=7</t>
-  </si>
-  <si>
-    <t>技能</t>
-  </si>
-  <si>
-    <t>type=8</t>
-  </si>
-  <si>
-    <t>饰品</t>
-  </si>
-  <si>
-    <t>type=9</t>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t>type=10</t>
-  </si>
-  <si>
-    <t>攻略道具</t>
-  </si>
-  <si>
-    <t>type=11</t>
-  </si>
-  <si>
-    <t>法宝</t>
-  </si>
-  <si>
-    <t>功能类型</t>
-  </si>
-  <si>
-    <t>type=12</t>
-  </si>
-  <si>
-    <t>背景主题</t>
-  </si>
-  <si>
-    <t>type=13</t>
-  </si>
-  <si>
-    <t>御剑</t>
-  </si>
-  <si>
-    <t>type=14</t>
-  </si>
-  <si>
-    <t>御剑皮肤</t>
-  </si>
-  <si>
-    <t>type=15</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>type=16</t>
-  </si>
-  <si>
-    <t>type=17</t>
-  </si>
-  <si>
-    <t>头像</t>
-  </si>
-  <si>
-    <t>type=18</t>
-  </si>
-  <si>
-    <t>头像框</t>
-  </si>
-  <si>
-    <t>type=19</t>
-  </si>
-  <si>
-    <t>聊天泡泡</t>
-  </si>
-  <si>
-    <t>type=20</t>
-  </si>
-  <si>
-    <t>亲密关系图标</t>
-  </si>
-  <si>
-    <t>type=21</t>
-  </si>
-  <si>
-    <t>聊天背景</t>
-  </si>
-  <si>
-    <t>type=22</t>
-  </si>
-  <si>
-    <t>伙伴卡</t>
-  </si>
-  <si>
-    <t>type=88</t>
-  </si>
-  <si>
-    <t>礼包</t>
-  </si>
-  <si>
-    <t>是否有模型1有  2无</t>
-  </si>
-  <si>
-    <t>发型</t>
-  </si>
-  <si>
-    <t>小小</t>
-  </si>
-  <si>
-    <t>剑皮肤</t>
-  </si>
-  <si>
-    <t>读技能ID</t>
-  </si>
-  <si>
-    <t>效果读buff</t>
-  </si>
-  <si>
-    <t>水果</t>
-  </si>
-  <si>
-    <t>无效果的</t>
-  </si>
-  <si>
-    <t>读技能id</t>
-  </si>
-  <si>
-    <t>默认</t>
-  </si>
-  <si>
-    <t>载具</t>
-  </si>
-  <si>
-    <t>男头像</t>
-  </si>
-  <si>
-    <t>恋人</t>
-  </si>
-  <si>
-    <t>n随1，随机多次</t>
-  </si>
-  <si>
-    <t>可装备</t>
-  </si>
-  <si>
-    <t>华国币</t>
-  </si>
-  <si>
-    <t>眼睛（FashionId占用）</t>
-  </si>
-  <si>
-    <t>玲珑</t>
-  </si>
-  <si>
-    <t>眼睛（id占用）</t>
-  </si>
-  <si>
-    <t>环皮肤</t>
-  </si>
-  <si>
-    <t>读action表ID</t>
-  </si>
-  <si>
-    <t>蔬菜</t>
-  </si>
-  <si>
-    <t>读Buff表ID</t>
-  </si>
-  <si>
-    <t>骑乘</t>
-  </si>
-  <si>
-    <t>套装</t>
-  </si>
-  <si>
-    <t>女头像</t>
-  </si>
-  <si>
-    <t>师徒</t>
-  </si>
-  <si>
-    <t>n合1</t>
-  </si>
-  <si>
-    <t>上衣</t>
-  </si>
-  <si>
-    <t>凡凡</t>
-  </si>
-  <si>
-    <t>弓皮肤</t>
-  </si>
-  <si>
-    <t>零食</t>
-  </si>
-  <si>
-    <t>特殊</t>
-  </si>
-  <si>
-    <t>兄弟姐妹</t>
-  </si>
-  <si>
-    <t>n选1</t>
-  </si>
-  <si>
-    <t>下衣</t>
-  </si>
-  <si>
-    <t>尘尘</t>
-  </si>
-  <si>
-    <t>法珠皮肤</t>
-  </si>
-  <si>
-    <t>冷饮</t>
-  </si>
-  <si>
-    <t>喇叭</t>
-  </si>
-  <si>
-    <t>灵剑</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>萌萌</t>
-  </si>
-  <si>
-    <t>臂铠皮肤</t>
-  </si>
-  <si>
-    <t>水墙</t>
-  </si>
-  <si>
-    <t>主食</t>
-  </si>
-  <si>
-    <t>打神鞭</t>
-  </si>
-  <si>
-    <t>雷达</t>
-  </si>
-  <si>
-    <t>灵剑皮肤</t>
-  </si>
-  <si>
-    <t>手饰</t>
-  </si>
-  <si>
-    <t>小辉</t>
-  </si>
-  <si>
-    <t>巨剑</t>
-  </si>
-  <si>
-    <t>巨剑皮肤</t>
-  </si>
-  <si>
-    <t>恋人动作</t>
-  </si>
-  <si>
-    <t>文具</t>
-  </si>
-  <si>
-    <t>臂饰</t>
-  </si>
-  <si>
-    <t>开哥</t>
-  </si>
-  <si>
-    <t>刀皮肤</t>
-  </si>
-  <si>
-    <t>师徒动作</t>
-  </si>
-  <si>
-    <t>生活用品</t>
-  </si>
-  <si>
-    <t>背部</t>
-  </si>
-  <si>
-    <t>神话</t>
-  </si>
-  <si>
-    <t>匕首皮肤</t>
-  </si>
-  <si>
-    <t>兄弟姐妹动作</t>
-  </si>
-  <si>
-    <t>小工具</t>
-  </si>
-  <si>
-    <t>隐身</t>
-  </si>
-  <si>
-    <t>眉毛（FashionId占用）</t>
-  </si>
-  <si>
-    <t>喧哗</t>
-  </si>
-  <si>
-    <t>眉毛（id占用）</t>
-  </si>
-  <si>
-    <t>枪</t>
-  </si>
-  <si>
-    <t>枪皮肤</t>
-  </si>
-  <si>
-    <t>工具</t>
-  </si>
-  <si>
-    <t>材料（校园攻略专用）</t>
-  </si>
-  <si>
-    <t>瞳孔（FashionId占用）</t>
-  </si>
-  <si>
-    <t>明天</t>
-  </si>
-  <si>
-    <t>瞳孔（id占用）</t>
-  </si>
-  <si>
-    <t>隐气</t>
-  </si>
-  <si>
-    <t>变身卡</t>
-  </si>
-  <si>
-    <t>面妆</t>
-  </si>
-  <si>
-    <t>男圆盘展示动作</t>
-  </si>
-  <si>
-    <t>数值越大，价值越高</t>
-  </si>
-  <si>
-    <t>反隐</t>
-  </si>
-  <si>
-    <t>烟花卡</t>
-  </si>
-  <si>
-    <t>腰包（FashionId占用）</t>
-  </si>
-  <si>
-    <t>裸模身子（FashionId占用）</t>
-  </si>
-  <si>
-    <t>女圆盘展示动作</t>
-  </si>
-  <si>
-    <t>裸模头（FashionId占用）</t>
-  </si>
-  <si>
-    <t>青云护体</t>
-  </si>
-  <si>
-    <t>防毒面具（FashionId占用）</t>
-  </si>
-  <si>
-    <t>开始游戏男</t>
-  </si>
-  <si>
-    <t>开始游戏女</t>
-  </si>
-  <si>
-    <t>圣疗</t>
-  </si>
-  <si>
-    <t>武器（FashionId占用）</t>
-  </si>
-  <si>
-    <t>mvp男</t>
-  </si>
-  <si>
-    <t>mvp女</t>
-  </si>
-  <si>
-    <t>大厅展示男</t>
-  </si>
-  <si>
-    <t>大厅展示女</t>
-  </si>
-  <si>
-    <t>特殊（FashionId占用）</t>
-  </si>
-  <si>
-    <t>前台待机男</t>
-  </si>
-  <si>
-    <t>封神鼎</t>
-  </si>
-  <si>
-    <t>type=90</t>
-  </si>
-  <si>
-    <t>眼睛、眉毛、瞳孔时装</t>
-  </si>
-  <si>
-    <t>前台待机女</t>
-  </si>
-  <si>
-    <t>太极盘</t>
-  </si>
-  <si>
-    <t>走入走出男</t>
-  </si>
-  <si>
-    <t>蒲团</t>
-  </si>
-  <si>
-    <t>走入走出女</t>
-  </si>
-  <si>
-    <t>本源符石</t>
   </si>
   <si>
     <t>防毒面具</t>
@@ -936,7 +1018,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>type=1</t>
@@ -946,7 +1027,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -955,59 +1035,22 @@
   <si>
     <t>第三位性别//0通用1男2女</t>
   </si>
-  <si>
-    <t>贡献值</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>unum</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具2</t>
-  </si>
-  <si>
-    <t>道具3</t>
-  </si>
-  <si>
-    <t>道具4</t>
-  </si>
-  <si>
-    <t>道具5</t>
-  </si>
-  <si>
-    <t>道具6</t>
-  </si>
-  <si>
-    <t>道具111</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>//注释用</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1015,7 +1058,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1023,84 +1065,211 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,7 +1284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7993408001953185"/>
+        <fgColor theme="9" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,12 +1308,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1310,93 +1665,335 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1474,8 +2071,23 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,93 +2119,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1"/>
-    <cellStyle name="常规 10 2" xfId="2"/>
-    <cellStyle name="常规 11" xfId="3"/>
-    <cellStyle name="常规 12" xfId="4"/>
-    <cellStyle name="常规 13" xfId="5"/>
-    <cellStyle name="常规 14" xfId="6"/>
-    <cellStyle name="常规 15" xfId="7"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 2 2" xfId="9"/>
-    <cellStyle name="常规 2 2 2" xfId="10"/>
-    <cellStyle name="常规 2 2 2 2" xfId="11"/>
-    <cellStyle name="常规 2 2 3" xfId="12"/>
-    <cellStyle name="常规 2 2 4" xfId="13"/>
-    <cellStyle name="常规 2 3" xfId="14"/>
-    <cellStyle name="常规 2 4" xfId="15"/>
-    <cellStyle name="常规 2 5" xfId="16"/>
-    <cellStyle name="常规 3" xfId="17"/>
-    <cellStyle name="常规 3 2" xfId="18"/>
-    <cellStyle name="常规 3 2 2" xfId="19"/>
-    <cellStyle name="常规 3 2 2 2" xfId="20"/>
-    <cellStyle name="常规 3 2 3" xfId="21"/>
-    <cellStyle name="常规 3 2 4" xfId="22"/>
-    <cellStyle name="常规 3 3" xfId="23"/>
-    <cellStyle name="常规 3 4" xfId="24"/>
-    <cellStyle name="常规 4" xfId="25"/>
-    <cellStyle name="常规 4 2" xfId="26"/>
-    <cellStyle name="常规 4 2 2" xfId="27"/>
-    <cellStyle name="常规 4 2 3" xfId="28"/>
-    <cellStyle name="常规 4 3" xfId="29"/>
-    <cellStyle name="常规 4 4" xfId="30"/>
-    <cellStyle name="常规 5" xfId="31"/>
-    <cellStyle name="常规 5 2" xfId="32"/>
-    <cellStyle name="常规 5 2 2" xfId="33"/>
-    <cellStyle name="常规 5 2 2 2" xfId="34"/>
-    <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="常规 5 2 4" xfId="36"/>
-    <cellStyle name="常规 5 3" xfId="37"/>
-    <cellStyle name="常规 5 4" xfId="38"/>
-    <cellStyle name="常规 6" xfId="39"/>
-    <cellStyle name="常规 6 2" xfId="40"/>
-    <cellStyle name="常规 7" xfId="41"/>
-    <cellStyle name="常规 8" xfId="42"/>
-    <cellStyle name="常规 8 2" xfId="43"/>
-    <cellStyle name="常规 8 2 2" xfId="44"/>
-    <cellStyle name="常规 8 2 2 2" xfId="45"/>
-    <cellStyle name="常规 8 2 3" xfId="46"/>
-    <cellStyle name="常规 8 2 4" xfId="47"/>
-    <cellStyle name="常规 8 3" xfId="48"/>
-    <cellStyle name="常规 8 4" xfId="49"/>
-    <cellStyle name="常规 9" xfId="50"/>
+  <cellStyles count="99">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 10" xfId="49"/>
+    <cellStyle name="常规 10 2" xfId="50"/>
+    <cellStyle name="常规 11" xfId="51"/>
+    <cellStyle name="常规 12" xfId="52"/>
+    <cellStyle name="常规 13" xfId="53"/>
+    <cellStyle name="常规 14" xfId="54"/>
+    <cellStyle name="常规 15" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="常规 2 2" xfId="57"/>
+    <cellStyle name="常规 2 2 2" xfId="58"/>
+    <cellStyle name="常规 2 2 2 2" xfId="59"/>
+    <cellStyle name="常规 2 2 3" xfId="60"/>
+    <cellStyle name="常规 2 2 4" xfId="61"/>
+    <cellStyle name="常规 2 3" xfId="62"/>
+    <cellStyle name="常规 2 4" xfId="63"/>
+    <cellStyle name="常规 2 5" xfId="64"/>
+    <cellStyle name="常规 3" xfId="65"/>
+    <cellStyle name="常规 3 2" xfId="66"/>
+    <cellStyle name="常规 3 2 2" xfId="67"/>
+    <cellStyle name="常规 3 2 2 2" xfId="68"/>
+    <cellStyle name="常规 3 2 3" xfId="69"/>
+    <cellStyle name="常规 3 2 4" xfId="70"/>
+    <cellStyle name="常规 3 3" xfId="71"/>
+    <cellStyle name="常规 3 4" xfId="72"/>
+    <cellStyle name="常规 4" xfId="73"/>
+    <cellStyle name="常规 4 2" xfId="74"/>
+    <cellStyle name="常规 4 2 2" xfId="75"/>
+    <cellStyle name="常规 4 2 3" xfId="76"/>
+    <cellStyle name="常规 4 3" xfId="77"/>
+    <cellStyle name="常规 4 4" xfId="78"/>
+    <cellStyle name="常规 5" xfId="79"/>
+    <cellStyle name="常规 5 2" xfId="80"/>
+    <cellStyle name="常规 5 2 2" xfId="81"/>
+    <cellStyle name="常规 5 2 2 2" xfId="82"/>
+    <cellStyle name="常规 5 2 3" xfId="83"/>
+    <cellStyle name="常规 5 2 4" xfId="84"/>
+    <cellStyle name="常规 5 3" xfId="85"/>
+    <cellStyle name="常规 5 4" xfId="86"/>
+    <cellStyle name="常规 6" xfId="87"/>
+    <cellStyle name="常规 6 2" xfId="88"/>
+    <cellStyle name="常规 7" xfId="89"/>
+    <cellStyle name="常规 8" xfId="90"/>
+    <cellStyle name="常规 8 2" xfId="91"/>
+    <cellStyle name="常规 8 2 2" xfId="92"/>
+    <cellStyle name="常规 8 2 2 2" xfId="93"/>
+    <cellStyle name="常规 8 2 3" xfId="94"/>
+    <cellStyle name="常规 8 2 4" xfId="95"/>
+    <cellStyle name="常规 8 3" xfId="96"/>
+    <cellStyle name="常规 8 4" xfId="97"/>
+    <cellStyle name="常规 9" xfId="98"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1611,35 +2242,25 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FFFF0000"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="00FFFFFF"/>
+      <color rgb="00FF0000"/>
+      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1655,19 +2276,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1675,7 +2290,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13040360" cy="9649460"/>
+          <a:ext cx="11411585" cy="10716260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1972,819 +2587,646 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="15" customWidth="1"/>
-    <col min="5" max="11" width="9" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13" style="3" customWidth="1"/>
-    <col min="17" max="17" width="14.25" style="3" customWidth="1"/>
-    <col min="18" max="19" width="12.5" style="3" customWidth="1"/>
-    <col min="20" max="22" width="18.75" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9" style="3"/>
-    <col min="24" max="24" width="16.75" style="3" customWidth="1"/>
-    <col min="25" max="26" width="12.125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="13.75" style="3" customWidth="1"/>
-    <col min="28" max="28" width="20.75" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.75" style="3" customWidth="1"/>
-    <col min="30" max="30" width="7.875" style="3" customWidth="1"/>
-    <col min="31" max="31" width="12.625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="12.5" style="3" customWidth="1"/>
-    <col min="33" max="33" width="13.125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="12.375" style="3" customWidth="1"/>
-    <col min="35" max="36" width="10.75" style="3" customWidth="1"/>
-    <col min="37" max="37" width="12.5" style="3" customWidth="1"/>
-    <col min="38" max="38" width="25" style="3" customWidth="1"/>
-    <col min="39" max="39" width="18" style="3" customWidth="1"/>
-    <col min="40" max="40" width="14.75" style="3" customWidth="1"/>
-    <col min="41" max="41" width="13" style="3" customWidth="1"/>
-    <col min="42" max="42" width="13.125" style="3" customWidth="1"/>
-    <col min="43" max="43" width="13.25" style="3" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11.6285714285714" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.1238095238095" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.247619047619" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.752380952381" style="15" customWidth="1"/>
+    <col min="5" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.1238095238095" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.8761904761905" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.247619047619" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.5047619047619" style="3" customWidth="1"/>
+    <col min="15" max="16" width="18.752380952381" style="3" customWidth="1"/>
+    <col min="17" max="17" width="12.1238095238095" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.7619047619048" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.6285714285714" style="3" customWidth="1"/>
+    <col min="20" max="20" width="24.4285714285714" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.1238095238095" style="3" customWidth="1"/>
+    <col min="22" max="22" width="12.3714285714286" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="52" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-    </row>
-    <row r="2" spans="1:43" s="53" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="53" t="s">
+    <row r="1" s="57" customFormat="1" ht="102" customHeight="1" spans="1:22">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="N2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="53" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+    </row>
+    <row r="2" s="58" customFormat="1" ht="17.25" spans="1:22">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="B2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="D2" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="18" spans="1:22">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C9" si="0">$A4</f>
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4:G9" si="1">CONCATENATE(E4,F4)</f>
+      <c r="G4" s="3">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3">
+        <v>111.2222</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.1111</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>121</v>
+      </c>
+      <c r="L4" s="3">
+        <v>111</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
         <v>11</v>
       </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H9" si="2">IF($J4&gt;=10,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" ref="I4:I9" si="3">IF($J4&gt;=100,"",IF($J4&gt;=10,0,0))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <f>COUNTIF($G$4:G4,G4)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="str">
-        <f t="shared" ref="N4:N9" si="4">CONCATENATE(G4,H4,I4,J4)</f>
-        <v>11001</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
+      <c r="O4" s="65">
+        <v>1290001</v>
+      </c>
+      <c r="P4" s="65">
+        <v>1111111111</v>
       </c>
       <c r="Q4" s="3">
         <v>1</v>
       </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="60">
-        <v>1290001</v>
-      </c>
-      <c r="U4" s="60"/>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB4" s="3">
-        <f t="shared" ref="AB4:AB9" si="5">$A4</f>
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>6</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="R4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G5" s="3">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3">
+        <v>112.2222</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.1111</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>122</v>
+      </c>
+      <c r="L5" s="3">
+        <v>112</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
         <v>12</v>
       </c>
-      <c r="H5" s="3">
-        <f t="shared" si="2"/>
+      <c r="O5" s="65">
+        <v>1290002</v>
+      </c>
+      <c r="P5" s="65">
+        <v>1111111112</v>
+      </c>
+      <c r="Q5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <f>COUNTIF($G$4:G5,G5)</f>
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12001</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="T5" s="60">
-        <v>1290002</v>
-      </c>
-      <c r="U5" s="60"/>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB5" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="R5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>298</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G6" s="3">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3">
+        <v>113.2222</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.1111</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>123</v>
+      </c>
+      <c r="L6" s="3">
+        <v>113</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
         <v>13</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <f>COUNTIF($G$4:G6,G6)</f>
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>13001</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
+      <c r="O6" s="65">
+        <v>1290003</v>
+      </c>
+      <c r="P6" s="65">
+        <v>1111111113</v>
       </c>
       <c r="Q6" s="3">
         <v>1</v>
       </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="60">
-        <v>1290003</v>
-      </c>
-      <c r="U6" s="60"/>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB6" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="R6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>298</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3">
         <v>4</v>
       </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G7" s="3">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3">
+        <v>114.2222</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4.1111</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>124</v>
+      </c>
+      <c r="L7" s="3">
+        <v>114</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4</v>
+      </c>
+      <c r="N7" s="3">
         <v>14</v>
       </c>
-      <c r="H7" s="3">
-        <f t="shared" si="2"/>
+      <c r="O7" s="65">
+        <v>1290004</v>
+      </c>
+      <c r="P7" s="65">
+        <v>1111111114</v>
+      </c>
+      <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <f>COUNTIF($G$4:G7,G7)</f>
-        <v>1</v>
-      </c>
-      <c r="N7" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>14001</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-      <c r="T7" s="60">
-        <v>1290004</v>
-      </c>
-      <c r="U7" s="60"/>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB7" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="R7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>296</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G8" s="3">
+        <v>25</v>
+      </c>
+      <c r="H8" s="3">
+        <v>115.2222</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5.1111</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>125</v>
+      </c>
+      <c r="L8" s="3">
+        <v>115</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
         <v>15</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <f>COUNTIF($G$4:G8,G8)</f>
-        <v>1</v>
-      </c>
-      <c r="N8" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15001</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="65">
+        <v>1290005</v>
+      </c>
+      <c r="P8" s="65">
+        <v>1111111115</v>
       </c>
       <c r="Q8" s="3">
         <v>1</v>
       </c>
-      <c r="R8" s="3">
-        <v>1</v>
-      </c>
-      <c r="T8" s="60">
-        <v>1290005</v>
-      </c>
-      <c r="U8" s="60"/>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB8" s="3">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="R8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3">
         <v>6</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G9" s="3">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3">
+        <v>116.2222</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6.1111</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3">
+        <v>126</v>
+      </c>
+      <c r="L9" s="3">
+        <v>116</v>
+      </c>
+      <c r="M9" s="3">
+        <v>6</v>
+      </c>
+      <c r="N9" s="3">
         <v>16</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" si="2"/>
+      <c r="O9" s="65">
+        <v>1290006</v>
+      </c>
+      <c r="P9" s="65">
+        <v>1111111116</v>
+      </c>
+      <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <f>COUNTIF($G$4:G9,G9)</f>
-        <v>1</v>
-      </c>
-      <c r="N9" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>16001</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="T9" s="60">
-        <v>1290006</v>
-      </c>
-      <c r="U9" s="61"/>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB9" s="3">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>1</v>
+      <c r="R9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AQ9"/>
+  <autoFilter ref="A3:V9">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A4:AH873">
-    <sortCondition ref="R4"/>
+    <sortCondition ref="M4"/>
   </sortState>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="A131:A1048576 A1:A9">
-    <cfRule type="duplicateValues" dxfId="3" priority="8337"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="9391"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A130">
-    <cfRule type="duplicateValues" dxfId="2" priority="674"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="674"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="9391"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9392"/>
+  <conditionalFormatting sqref="A131:A1048576 A1:A9">
+    <cfRule type="duplicateValues" dxfId="1" priority="8337"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BC88"/>
   <sheetViews>
@@ -2792,284 +3234,284 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="5" width="11.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="3"/>
+    <col min="4" max="5" width="11.1238095238095" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6285714285714" style="3"/>
     <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="10.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="3"/>
-    <col min="14" max="14" width="13.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.752380952381" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.3714285714286" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.247619047619" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.12380952380952" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.87619047619048" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.3714285714286" style="3"/>
+    <col min="14" max="14" width="13.8761904761905" style="3" customWidth="1"/>
     <col min="15" max="15" width="9" style="3"/>
     <col min="16" max="16" width="7" style="3" customWidth="1"/>
     <col min="17" max="17" width="9" style="3"/>
-    <col min="18" max="18" width="12.875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.8761904761905" style="3" customWidth="1"/>
     <col min="19" max="19" width="9" style="3"/>
-    <col min="20" max="20" width="10.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.752380952381" style="3" customWidth="1"/>
     <col min="21" max="21" width="9" style="3"/>
-    <col min="22" max="22" width="12.875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="14.125" style="2"/>
-    <col min="24" max="24" width="15.375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="9.25" style="3"/>
-    <col min="26" max="26" width="8.875" style="3" customWidth="1"/>
-    <col min="27" max="27" width="9.25" style="3"/>
+    <col min="22" max="22" width="12.8761904761905" style="3" customWidth="1"/>
+    <col min="23" max="23" width="14.1238095238095" style="2"/>
+    <col min="24" max="24" width="15.3714285714286" style="4" customWidth="1"/>
+    <col min="25" max="25" width="9.24761904761905" style="3"/>
+    <col min="26" max="26" width="8.87619047619048" style="3" customWidth="1"/>
+    <col min="27" max="27" width="9.24761904761905" style="3"/>
     <col min="28" max="29" width="9" style="3"/>
-    <col min="30" max="30" width="12.875" style="3" customWidth="1"/>
-    <col min="31" max="31" width="9.25" style="3"/>
+    <col min="30" max="30" width="12.8761904761905" style="3" customWidth="1"/>
+    <col min="31" max="31" width="9.24761904761905" style="3"/>
     <col min="32" max="32" width="9" style="3"/>
-    <col min="33" max="33" width="9.25" style="3"/>
+    <col min="33" max="33" width="9.24761904761905" style="3"/>
     <col min="34" max="34" width="9" style="3"/>
-    <col min="35" max="35" width="9.25" style="3"/>
+    <col min="35" max="35" width="9.24761904761905" style="3"/>
     <col min="36" max="36" width="9" style="3"/>
-    <col min="37" max="37" width="9.25" style="3"/>
+    <col min="37" max="37" width="9.24761904761905" style="3"/>
     <col min="38" max="47" width="9" style="3"/>
-    <col min="48" max="48" width="14.125" style="3" customWidth="1"/>
-    <col min="49" max="49" width="9.625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="14.125" style="3" customWidth="1"/>
-    <col min="51" max="51" width="9.625" style="3" customWidth="1"/>
-    <col min="52" max="52" width="14.125" style="3" customWidth="1"/>
+    <col min="48" max="48" width="14.1238095238095" style="3" customWidth="1"/>
+    <col min="49" max="49" width="9.62857142857143" style="3" customWidth="1"/>
+    <col min="50" max="50" width="14.1238095238095" style="3" customWidth="1"/>
+    <col min="51" max="51" width="9.62857142857143" style="3" customWidth="1"/>
+    <col min="52" max="52" width="14.1238095238095" style="3" customWidth="1"/>
     <col min="53" max="53" width="9" style="3"/>
-    <col min="54" max="54" width="9.25" style="3"/>
-    <col min="55" max="55" width="15.375" style="3" customWidth="1"/>
+    <col min="54" max="54" width="9.24761904761905" style="3"/>
+    <col min="55" max="55" width="15.3714285714286" style="3" customWidth="1"/>
     <col min="56" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B1" s="5"/>
       <c r="F1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="Y1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="Z1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="AA1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="AB1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AC1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AV1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AW1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AX1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AY1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="BB1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="BC1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AL1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:54">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AM1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3077,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E3" s="9">
         <v>101001</v>
@@ -3086,49 +3528,49 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="K3" s="3">
         <v>31</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="O3" s="3">
         <v>1</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="3">
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="S3" s="3">
         <v>0</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="U3" s="3">
         <v>0</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="W3" s="3">
         <v>1</v>
@@ -3138,94 +3580,94 @@
         <v>1</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AC3" s="3">
         <v>1</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AE3" s="3">
         <v>1</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AG3" s="3">
         <v>1</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AI3" s="3">
         <v>1</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AK3" s="3">
         <v>1</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="AM3" s="3">
         <v>1</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AO3" s="3">
         <v>1</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AQ3" s="3">
         <v>1</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="AS3" s="3">
         <v>1</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="AU3" s="3">
         <v>1</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AW3" s="3">
         <v>1</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AY3" s="3">
         <v>0</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="BB3" s="3">
         <v>1</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3233,10 +3675,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E4" s="9">
         <v>20101001</v>
@@ -3245,43 +3687,43 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="I4" s="38">
         <v>2</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K4" s="4">
         <v>32</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="M4" s="38">
         <v>2</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="O4" s="3">
         <v>2</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="3">
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="W4" s="3">
         <v>2</v>
@@ -3291,64 +3733,64 @@
         <v>2</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AA4" s="3">
         <v>1</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AC4" s="3">
         <v>2</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="AG4" s="3">
         <v>2</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AI4" s="3">
         <v>2</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AK4" s="3">
         <v>2</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="AM4" s="3">
         <v>2</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AO4" s="3">
         <v>2</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AU4" s="3">
         <v>2</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="BB4" s="3">
         <v>2</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3356,10 +3798,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E5" s="9">
         <v>331001</v>
@@ -3368,37 +3810,37 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K5" s="3">
         <v>33</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M5" s="3">
         <v>3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="O5" s="3">
         <v>3</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="3">
         <v>3</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="S5" s="3">
         <v>2</v>
@@ -3411,52 +3853,52 @@
         <v>3</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AA5" s="3">
         <v>2</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="AC5" s="3">
         <v>3</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="AG5" s="3">
         <v>3</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AI5" s="3">
         <v>3</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AK5" s="3">
         <v>3</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="AU5" s="3">
         <v>3</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BB5" s="3">
         <v>3</v>
       </c>
       <c r="BC5" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3464,10 +3906,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E6" s="9">
         <v>33101001</v>
@@ -3476,37 +3918,37 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K6" s="4">
         <v>34</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M6" s="3">
         <v>4</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O6" s="3">
         <v>4</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S6" s="3">
         <v>3</v>
@@ -3519,28 +3961,28 @@
         <v>4</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AA6" s="3">
         <v>3</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="AC6" s="3">
         <v>4</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AK6" s="3">
         <v>4</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -3548,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E7" s="9">
         <v>501001</v>
@@ -3557,43 +3999,43 @@
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K7" s="3">
         <v>35</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M7" s="3">
         <v>5</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O7" s="3">
         <v>5</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="3">
         <v>5</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S7" s="3">
         <v>4</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W7" s="3">
         <v>5</v>
@@ -3603,28 +4045,28 @@
         <v>5</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA7" s="3">
         <v>4</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC7" s="3">
         <v>5</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK7" s="3">
         <v>5</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3635,7 +4077,7 @@
         <v>188</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E8" s="9">
         <v>601001</v>
@@ -3644,37 +4086,37 @@
         <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K8" s="4">
         <v>36</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M8" s="3">
         <v>6</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O8" s="3">
         <v>6</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="3">
         <v>6</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S8" s="3">
         <v>5</v>
@@ -3683,19 +4125,19 @@
         <v>6</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y8" s="3">
         <v>6</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA8" s="3">
         <v>5</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="AC8" s="3">
         <v>6</v>
@@ -3704,10 +4146,10 @@
         <v>6</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -3715,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E9" s="9">
         <v>701001</v>
@@ -3724,55 +4166,55 @@
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K9" s="3">
         <v>37</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O9" s="3">
         <v>7</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="Q9" s="3">
         <v>7</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="W9" s="3">
         <v>7</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Y9" s="3">
         <v>7</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AA9" s="3">
         <v>6</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="AC9" s="3">
         <v>7</v>
@@ -3781,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -3792,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9">
@@ -3802,70 +4244,70 @@
         <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K10" s="4">
         <v>38</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M10" s="3">
         <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="O10" s="3">
         <v>8</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="3">
         <v>8</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="W10" s="3">
         <v>8</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Y10" s="3">
         <v>8</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AA10" s="3">
         <v>7</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="AC10" s="3">
         <v>8</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AK10" s="3">
         <v>8</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -3873,10 +4315,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E11" s="12">
         <v>901001</v>
@@ -3885,37 +4327,37 @@
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="I11" s="38">
         <v>9</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="K11" s="3">
         <v>39</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="M11" s="38">
         <v>9</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="O11" s="3">
         <v>9</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="3">
         <v>9</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="W11" s="3">
         <v>9</v>
@@ -3924,13 +4366,13 @@
         <v>9</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AA11" s="6">
         <v>8</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AC11" s="3">
         <v>9</v>
@@ -3939,10 +4381,10 @@
         <v>9</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -3950,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E12" s="9">
         <v>1001001</v>
@@ -3959,25 +4401,25 @@
         <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="I12" s="38">
         <v>10</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="K12" s="4">
         <v>40</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="M12" s="38">
         <v>10</v>
       </c>
       <c r="N12" s="39" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="W12" s="3">
         <v>10</v>
@@ -3989,7 +4431,7 @@
         <v>9</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AC12" s="3">
         <v>10</v>
@@ -3998,10 +4440,10 @@
         <v>10</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -4009,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E13" s="9">
         <v>1101001</v>
@@ -4018,40 +4460,40 @@
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="I13" s="3">
         <v>11</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="K13" s="3">
         <v>99</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="M13" s="3">
         <v>11</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="W13" s="40">
         <v>11</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="Y13" s="15" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="AA13" s="6">
         <v>10</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="AC13" s="3">
         <v>11</v>
@@ -4061,10 +4503,10 @@
         <v>11</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -4072,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E14" s="9">
         <v>1201001</v>
@@ -4084,31 +4526,31 @@
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="I14" s="38">
         <v>80</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="W14" s="40">
         <v>12</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="AA14" s="3">
         <v>11</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AC14" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -4116,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
@@ -4126,31 +4568,31 @@
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="I15" s="38">
         <v>90</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="W15" s="40">
         <v>21</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="AA15" s="3">
         <v>12</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="AC15" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -4158,10 +4600,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E16" s="9">
         <v>1401001</v>
@@ -4170,34 +4612,34 @@
         <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="I16" s="38">
         <v>91</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="W16" s="40">
         <v>22</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="AA16" s="3">
         <v>13</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="AC16" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -4205,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
@@ -4215,34 +4657,34 @@
         <v>32</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="I17" s="38">
         <v>92</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="W17" s="40">
         <v>13</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AA17" s="3">
         <v>14</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AC17" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -4250,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E18" s="9">
         <v>8801001</v>
@@ -4259,34 +4701,34 @@
         <v>33</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="I18" s="38">
         <v>91</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="W18" s="40">
         <v>23</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="AA18" s="3">
         <v>15</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="AC18" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -4294,31 +4736,31 @@
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I19" s="38">
         <v>98</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="W19" s="40">
         <v>14</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="AA19" s="3">
         <v>16</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AC19" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -4328,19 +4770,19 @@
         <v>24</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="AA20" s="3">
         <v>17</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AC20" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -4350,19 +4792,19 @@
         <v>15</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="AA21" s="3">
         <v>18</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AC21" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -4372,19 +4814,19 @@
         <v>25</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="AA22" s="3">
         <v>19</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AC22" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29">
       <c r="A23" s="7">
         <v>18</v>
       </c>
@@ -4392,31 +4834,31 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="I23" s="38">
         <v>99</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="W23" s="40">
         <v>16</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="AA23" s="6">
         <v>20</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="AC23" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29">
       <c r="A24" s="7">
         <v>19</v>
       </c>
@@ -4424,13 +4866,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="T24" s="40"/>
       <c r="U24" s="7"/>
@@ -4438,19 +4880,19 @@
         <v>26</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="AA24" s="6">
         <v>21</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="AC24" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="7">
         <v>20</v>
       </c>
@@ -4458,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -4466,20 +4908,20 @@
         <v>17</v>
       </c>
       <c r="X25" s="7" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="AA25" s="3">
         <v>22</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="AC25" s="3">
         <v>23</v>
       </c>
       <c r="AD25" s="6"/>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="7">
         <v>21</v>
       </c>
@@ -4487,13 +4929,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="W26" s="7">
         <v>27</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="AA26" s="3">
         <v>23</v>
@@ -4503,7 +4945,7 @@
       </c>
       <c r="AD26" s="6"/>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -4511,13 +4953,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="W27" s="4">
         <v>34</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AA27" s="3">
         <v>24</v>
@@ -4526,7 +4968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:55">
       <c r="A28" s="7">
         <v>88</v>
       </c>
@@ -4534,7 +4976,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -4542,190 +4984,190 @@
         <v>35</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AA28" s="3">
         <v>25</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="AC28" s="3">
         <v>26</v>
       </c>
       <c r="BC28" s="15"/>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="12:29">
       <c r="L29" s="4"/>
       <c r="W29" s="4">
         <v>36</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA29" s="3">
         <v>26</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="AC29" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="11:29">
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="W30" s="3">
         <v>37</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AA30" s="3">
         <v>27</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="AC30" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="31" spans="12:29">
       <c r="L31" s="4"/>
       <c r="W31" s="4">
         <v>38</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AA31" s="6">
         <v>28</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="AC31" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="11:29">
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="W32" s="3">
         <v>39</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AA32" s="3">
         <v>29</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="AC32" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:30">
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="W33" s="4">
         <v>40</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="AA33" s="3">
         <v>30</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="AC33" s="3">
         <v>31</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="12:24">
       <c r="L34" s="4"/>
       <c r="W34" s="3">
         <v>31</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="11:30">
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="W35" s="4">
         <v>32</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="12:30">
       <c r="L36" s="4"/>
       <c r="W36" s="3">
         <v>33</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AD36" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="11:24">
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="W37" s="4">
         <v>34</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="12:24">
       <c r="L38" s="4"/>
       <c r="W38" s="3">
         <v>35</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="11:24">
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="W39" s="4">
         <v>36</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="12:24">
       <c r="L40" s="4"/>
       <c r="W40" s="3">
         <v>37</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="2" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -4733,36 +5175,36 @@
         <v>38</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="17" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="2" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="L42" s="4"/>
       <c r="W42" s="3">
         <v>39</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="20" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="D43" s="22"/>
       <c r="F43" s="2"/>
@@ -4773,14 +5215,14 @@
         <v>40</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="16"/>
@@ -4791,17 +5233,17 @@
         <v>51</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="Y44" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="16"/>
@@ -4813,14 +5255,14 @@
         <v>61</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46"/>
@@ -4829,14 +5271,14 @@
         <v>52</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47"/>
@@ -4847,14 +5289,14 @@
         <v>62</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48"/>
@@ -4862,11 +5304,11 @@
       <c r="L48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23">
       <c r="A49" s="26"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49"/>
@@ -4877,421 +5319,421 @@
       <c r="L49" s="4"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23">
       <c r="A50" s="29" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50"/>
       <c r="L50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23">
       <c r="A51" s="32"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="D51" s="34"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23">
       <c r="A52" s="32"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="D52" s="34"/>
       <c r="L52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23">
       <c r="A53" s="35"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D53" s="34"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="W53" s="3"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23">
       <c r="A54" s="20" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="21" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="2" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="L54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="16">
         <v>41302001</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="G55" s="2"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="W55" s="3"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="16">
         <v>41507001</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="G56" s="2"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="D57" s="25"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="24" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="D58" s="25"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="26"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="29" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B60" s="36"/>
       <c r="C60" s="36" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="D60" s="31"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="29" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B61" s="37"/>
       <c r="C61" s="37" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="D61" s="34"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="29" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B62" s="37"/>
       <c r="C62" s="37" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="29" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B63" s="37"/>
       <c r="C63" s="37" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D63" s="34"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="29" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
       <c r="D64" s="34"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="41" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B65" s="42"/>
       <c r="C65" s="42" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="D65" s="43"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="41" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B66" s="44"/>
       <c r="C66" s="44" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="D66" s="45"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="41" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B67" s="44"/>
       <c r="C67" s="44" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="D67" s="45"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="41" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B68" s="44"/>
       <c r="C68" s="44" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D68" s="45"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="41" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
       <c r="D69" s="45"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="41" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
       <c r="D70" s="45"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" s="41" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B71" s="46"/>
       <c r="C71" s="46"/>
       <c r="D71" s="45"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" s="41" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B72" s="46"/>
       <c r="C72" s="46"/>
       <c r="D72" s="45"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" s="41" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B73" s="46"/>
       <c r="C73" s="46"/>
       <c r="D73" s="45"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" s="41" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B74" s="46"/>
       <c r="C74" s="46"/>
       <c r="D74" s="45"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="41" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B75" s="46"/>
       <c r="C75" s="46"/>
       <c r="D75" s="45"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" s="41" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B76" s="46"/>
       <c r="C76" s="46"/>
       <c r="D76" s="45"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="D77" s="47"/>
+    <row r="77" spans="1:8">
+      <c r="A77" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" s="48"/>
       <c r="G77" s="3" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="H77" s="3">
         <v>88203100</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="64"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D78" s="47"/>
+    <row r="78" spans="1:8">
+      <c r="A78" s="49"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="D78" s="48"/>
       <c r="G78" s="3" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="H78" s="3">
         <v>88210001</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="64"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="D79" s="47"/>
+    <row r="79" spans="1:8">
+      <c r="A79" s="49"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" s="48"/>
       <c r="G79" s="3" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="H79" s="3">
         <v>88220001</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="64"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="D80" s="47"/>
+    <row r="80" spans="1:8">
+      <c r="A80" s="49"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" s="48"/>
       <c r="G80" s="3" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="H80" s="3">
         <v>88200002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="64"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="D81" s="47"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="64"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="D82" s="47"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="65"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="D83" s="47"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="66" t="s">
-        <v>286</v>
-      </c>
-      <c r="B84" s="48"/>
+    <row r="81" spans="1:4">
+      <c r="A81" s="49"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81" s="48"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="49"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D82" s="48"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="50"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="D83" s="48"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" s="52"/>
       <c r="C84" s="44" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="D84" s="45"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="66"/>
-      <c r="B85" s="48"/>
+    <row r="85" spans="1:4">
+      <c r="A85" s="51"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="44" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="D85" s="45"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="66"/>
-      <c r="B86" s="48"/>
+    <row r="86" spans="1:4">
+      <c r="A86" s="51"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="44" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="D86" s="45"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="66"/>
-      <c r="B87" s="48"/>
+    <row r="87" spans="1:4">
+      <c r="A87" s="51"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="44" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="D87" s="45"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="67"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="D88" s="51"/>
+    <row r="88" spans="1:4">
+      <c r="A88" s="53"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="D88" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A77:A83"/>
     <mergeCell ref="A84:A88"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5299,14 +5741,14 @@
       <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>